--- a/ParaHoy/TemasPendientes_Cohorte05.xlsx
+++ b/ParaHoy/TemasPendientes_Cohorte05.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\ParaHoy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\ParaHoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9E90E3-2C22-4AE8-9C82-9639C428E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Vector de Objetos Literales</t>
   </si>
@@ -91,12 +90,15 @@
   </si>
   <si>
     <t>map</t>
+  </si>
+  <si>
+    <t>particularidades de las arrow function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +516,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>13</v>

--- a/ParaHoy/TemasPendientes_Cohorte05.xlsx
+++ b/ParaHoy/TemasPendientes_Cohorte05.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel M\Desktop\Modulo02_JavaScript\ParaHoy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_ENGITHUB\Modulo02_JavaScript\ParaHoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1877CA46-09B1-4D90-B203-AF40F43561D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Vector de Objetos Literales</t>
   </si>
@@ -93,12 +94,15 @@
   </si>
   <si>
     <t>particularidades de las arrow function</t>
+  </si>
+  <si>
+    <t>listo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,11 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,117 +425,177 @@
     <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
